--- a/test-data/verfify2/계약자관리명부(11월).xlsx
+++ b/test-data/verfify2/계약자관리명부(11월).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="200">
   <si>
     <r>
       <t>0</t>
@@ -1178,6 +1178,22 @@
   </si>
   <si>
     <t>김나영3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>61008-2405615</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="17.25" customHeight="1"/>
@@ -1690,7 +1706,7 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A46" si="0">A2+1</f>
+        <f t="shared" ref="A3:A36" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -2408,37 +2424,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>45988</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2450,37 +2466,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>45988</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2492,37 +2508,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>45988</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2534,37 +2550,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>45988</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2576,37 +2592,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>45988</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2618,37 +2634,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>45988</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2660,37 +2676,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>148</v>
+        <v>45988</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2702,37 +2718,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>148</v>
+        <v>45988</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2744,37 +2760,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>148</v>
+        <v>45988</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2786,37 +2802,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>45985</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="2" t="s">
+        <v>45988</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>148</v>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2828,31 +2844,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>58</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>43</v>
@@ -2870,31 +2886,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>43</v>
@@ -2912,31 +2928,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>43</v>
@@ -2954,31 +2970,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>43</v>
@@ -2996,31 +3012,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>43</v>
@@ -3038,31 +3054,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>49</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>43</v>
@@ -3080,37 +3096,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -3118,41 +3134,41 @@
     </row>
     <row r="37" spans="1:15" ht="17.25" customHeight="1">
       <c r="A37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A37:A73" si="1">A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -3160,41 +3176,41 @@
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1">
       <c r="A38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -3202,41 +3218,41 @@
     </row>
     <row r="39" spans="1:15" ht="17.25" customHeight="1">
       <c r="A39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3244,41 +3260,41 @@
     </row>
     <row r="40" spans="1:15" ht="17.25" customHeight="1">
       <c r="A40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -3286,41 +3302,41 @@
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -3328,41 +3344,41 @@
     </row>
     <row r="42" spans="1:15" ht="17.25" customHeight="1">
       <c r="A42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H42" s="2">
+        <v>94669540457</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3370,41 +3386,41 @@
     </row>
     <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H43" s="2">
+        <v>94669540457</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -3412,41 +3428,41 @@
     </row>
     <row r="44" spans="1:15" ht="17.25" customHeight="1">
       <c r="A44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H44" s="2">
+        <v>94669540457</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3454,41 +3470,41 @@
     </row>
     <row r="45" spans="1:15" ht="17.25" customHeight="1">
       <c r="A45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H45" s="2">
+        <v>94669540457</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -3496,41 +3512,41 @@
     </row>
     <row r="46" spans="1:15" ht="17.25" customHeight="1">
       <c r="A46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="5">
-        <v>45981</v>
+      <c r="B46" s="4">
+        <v>45988</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3538,41 +3554,41 @@
     </row>
     <row r="47" spans="1:15" ht="17.25" customHeight="1">
       <c r="A47" s="2">
-        <f t="shared" ref="A47:A81" si="1">A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>45981</v>
+      <c r="B47" s="4">
+        <v>45988</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -3583,38 +3599,38 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>45981</v>
+      <c r="B48" s="4">
+        <v>45988</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -3625,38 +3641,38 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>45981</v>
+      <c r="B49" s="4">
+        <v>45988</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -3667,38 +3683,38 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="5">
-        <v>45981</v>
+      <c r="B50" s="4">
+        <v>45988</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -3709,38 +3725,38 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="5">
-        <v>45981</v>
+      <c r="B51" s="4">
+        <v>45988</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3751,38 +3767,38 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="5">
-        <v>45981</v>
+      <c r="B52" s="4">
+        <v>45988</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="2">
-        <v>94669540457</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3793,38 +3809,38 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="5">
-        <v>45981</v>
+      <c r="B53" s="4">
+        <v>45988</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="2">
-        <v>94669540457</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3835,38 +3851,38 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="5">
-        <v>45981</v>
+      <c r="B54" s="4">
+        <v>45988</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="2">
-        <v>94669540457</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -3877,38 +3893,38 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="5">
-        <v>45981</v>
+      <c r="B55" s="4">
+        <v>45988</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="2">
-        <v>94669540457</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -3922,39 +3938,36 @@
       <c r="B56" s="4">
         <v>45988</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="D56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="H56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="17.25" customHeight="1">
       <c r="A57" s="2">
@@ -3964,123 +3977,114 @@
       <c r="B57" s="4">
         <v>45988</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="D57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="H57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" customHeight="1">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="B58" s="7">
+        <v>45974</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="17.25" customHeight="1">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="B59" s="7">
+        <v>45974</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="17.25" customHeight="1">
       <c r="A60" s="2">
@@ -4090,39 +4094,36 @@
       <c r="B60" s="4">
         <v>45988</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>157</v>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="17.25" customHeight="1">
       <c r="A61" s="2">
@@ -4132,39 +4133,36 @@
       <c r="B61" s="4">
         <v>45988</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>1</v>
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="17.25" customHeight="1">
       <c r="A62" s="2">
@@ -4174,39 +4172,36 @@
       <c r="B62" s="4">
         <v>45988</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>1</v>
+      <c r="C62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="17.25" customHeight="1">
       <c r="A63" s="2">
@@ -4216,39 +4211,36 @@
       <c r="B63" s="4">
         <v>45988</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>1</v>
+      <c r="C63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="64" spans="1:15" ht="17.25" customHeight="1">
       <c r="A64" s="2">
@@ -4258,39 +4250,36 @@
       <c r="B64" s="4">
         <v>45988</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>1</v>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="17.25" customHeight="1">
       <c r="A65" s="2">
@@ -4300,39 +4289,36 @@
       <c r="B65" s="4">
         <v>45988</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>1</v>
+      <c r="C65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="17.25" customHeight="1">
       <c r="A66" s="2">
@@ -4342,35 +4328,35 @@
       <c r="B66" s="4">
         <v>45988</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>161</v>
+      <c r="C66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="17.25" customHeight="1">
@@ -4381,35 +4367,35 @@
       <c r="B67" s="4">
         <v>45988</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>161</v>
+      <c r="C67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17.25" customHeight="1">
@@ -4417,38 +4403,38 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="7">
-        <v>45974</v>
+      <c r="B68" s="4">
+        <v>45988</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>170</v>
+        <v>189</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="17.25" customHeight="1">
@@ -4456,38 +4442,38 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="7">
-        <v>45974</v>
+      <c r="B69" s="4">
+        <v>45988</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>170</v>
+        <v>189</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="17.25" customHeight="1">
@@ -4499,28 +4485,28 @@
         <v>45988</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>103</v>
+        <v>182</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>188</v>
@@ -4538,28 +4524,28 @@
         <v>45988</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>188</v>
@@ -4573,390 +4559,420 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B72" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" ht="17.25" customHeight="1">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B73" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" ht="17.25" customHeight="1">
       <c r="A74" s="2">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B74" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" ht="17.25" customHeight="1">
       <c r="A75" s="2">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B75" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" ht="17.25" customHeight="1">
       <c r="A76" s="2">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B76" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" ht="17.25" customHeight="1">
       <c r="A77" s="2">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B77" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" ht="17.25" customHeight="1">
       <c r="A78" s="2">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B78" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
     </row>
     <row r="79" spans="1:15" ht="17.25" customHeight="1">
       <c r="A79" s="2">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B79" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:15" ht="17.25" customHeight="1">
       <c r="A80" s="2">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B80" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" ht="17.25" customHeight="1">
       <c r="A81" s="2">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="4">
-        <v>45988</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B81" s="5">
+        <v>45985</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
